--- a/proj1/medicoes/ex2/dados-stride2048.xlsx
+++ b/proj1/medicoes/ex2/dados-stride2048.xlsx
@@ -460,13 +460,13 @@
         <v>4096</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000792</v>
+        <v>0.000272</v>
       </c>
       <c r="C2" t="n">
-        <v>409600</v>
+        <v>819200</v>
       </c>
       <c r="D2" t="n">
-        <v>1.932942</v>
+        <v>0.332395</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>8192</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001715</v>
+        <v>0.00046</v>
       </c>
       <c r="C3" t="n">
-        <v>819200</v>
+        <v>1638400</v>
       </c>
       <c r="D3" t="n">
-        <v>2.094091</v>
+        <v>0.280582</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>16384</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003522</v>
+        <v>0.000955</v>
       </c>
       <c r="C4" t="n">
-        <v>1638400</v>
+        <v>3276800</v>
       </c>
       <c r="D4" t="n">
-        <v>2.149524</v>
+        <v>0.291384</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>32768</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006863</v>
+        <v>0.002284</v>
       </c>
       <c r="C5" t="n">
-        <v>3276800</v>
+        <v>6553600</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09428</v>
+        <v>0.348467</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>65536</v>
       </c>
       <c r="B6" t="n">
-        <v>0.035288</v>
+        <v>0.016281</v>
       </c>
       <c r="C6" t="n">
-        <v>6553600</v>
+        <v>13107200</v>
       </c>
       <c r="D6" t="n">
-        <v>5.384569</v>
+        <v>1.24217</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>131072</v>
       </c>
       <c r="B7" t="n">
-        <v>0.067104</v>
+        <v>0.037983</v>
       </c>
       <c r="C7" t="n">
-        <v>13107200</v>
+        <v>26214400</v>
       </c>
       <c r="D7" t="n">
-        <v>5.119658</v>
+        <v>1.448923</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>262144</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122682</v>
+        <v>0.08702500000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>26214400</v>
+        <v>52428800</v>
       </c>
       <c r="D8" t="n">
-        <v>4.679942</v>
+        <v>1.659869</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>524288</v>
       </c>
       <c r="B9" t="n">
-        <v>0.171241</v>
+        <v>0.228984</v>
       </c>
       <c r="C9" t="n">
-        <v>52428800</v>
+        <v>104857600</v>
       </c>
       <c r="D9" t="n">
-        <v>3.26617</v>
+        <v>2.183763</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1048576</v>
       </c>
       <c r="B10" t="n">
-        <v>0.325036</v>
+        <v>0.447036</v>
       </c>
       <c r="C10" t="n">
-        <v>104857600</v>
+        <v>209715200</v>
       </c>
       <c r="D10" t="n">
-        <v>3.099782</v>
+        <v>2.131632</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2097152</v>
       </c>
       <c r="B11" t="n">
-        <v>0.767806</v>
+        <v>0.895169</v>
       </c>
       <c r="C11" t="n">
-        <v>209715200</v>
+        <v>419430400</v>
       </c>
       <c r="D11" t="n">
-        <v>3.661186</v>
+        <v>2.134248</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>4194304</v>
       </c>
       <c r="B12" t="n">
-        <v>1.263078</v>
+        <v>1.792242</v>
       </c>
       <c r="C12" t="n">
-        <v>419430400</v>
+        <v>838860800</v>
       </c>
       <c r="D12" t="n">
-        <v>3.011412</v>
+        <v>2.13652</v>
       </c>
     </row>
   </sheetData>
